--- a/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_37.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_37.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0856330394744873</v>
+        <v>0.0007460117340087891</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006909370422363281</v>
+        <v>0.0006930828094482422</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007481575012207031</v>
+        <v>0.02522587776184082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(5, 3), (5, 5), (4, 6), (4, 4), (4, 2), (4, 0), (4, 1), (4, 3), (4, 5), (3, 6), (3, 4), (3, 2), (3, 0), (3, 1), (3, 3), (3, 5), (2, 6), (2, 4), (2, 2), (2, 0), (2, 1), (2, 3), (2, 5), (1, 6), (1, 4), (1, 2), (1, 0), (1, 1), (1, 3), (1, 5), (0, 6), (0, 5), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[5, 3], [5, 5], [4, 6], [4, 4], [4, 2], [4, 0], [4, 1], [4, 3], [4, 5], [3, 6], [3, 4], [3, 2], [3, 0], [3, 1], [3, 3], [3, 5], [2, 6], [2, 4], [2, 2], [2, 0], [2, 1], [2, 3], [2, 5], [1, 6], [1, 4], [1, 2], [1, 0], [1, 1], [1, 3], [1, 5], [0, 6], [0, 5], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,6 @@
           <t>[36, 35]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[30, 29]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -525,11 +520,6 @@
           <t>[35, 34]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[16, 15]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -537,11 +527,6 @@
           <t>[34, 33]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[9, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -549,16 +534,6 @@
           <t>[33, 32]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[2, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -566,11 +541,6 @@
           <t>[32, 31]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[13, 12]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -578,298 +548,354 @@
           <t>[31, 30]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[27, 26]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[1, 0]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[29, 28]</t>
+          <t>[30, 29]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[28, 27]</t>
+          <t>[29, 28]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[26, 25]</t>
+          <t>[28, 27]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[25, 24]</t>
+          <t>[27, 26]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[24, 23]</t>
+          <t>[26, 25]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[23, 22]</t>
+          <t>[25, 24]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[22, 21]</t>
+          <t>[24, 23]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[21, 20]</t>
+          <t>[23, 22]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[20, 19]</t>
+          <t>[22, 21]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[19, 18]</t>
+          <t>[21, 20]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[18, 17]</t>
+          <t>[20, 19]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[17, 16]</t>
+          <t>[19, 18]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[18, 17]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
+          <t>[17, 16]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[16, 15]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[15, 14]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[14, 13]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.8347818556506934</v>
+          <t>[8, 7]</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>200</v>
+          <t>[7, 6]</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+          <t>[6, 5]</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>28</v>
+          <t>[5, 4]</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
+          <t>[4, 3]</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.09369587898254395</v>
+          <t>[3, 2]</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>[2, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.834748910243584</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03570199012756348</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
